--- a/biology/Histoire de la zoologie et de la botanique/Thomas_McIlwraith/Thomas_McIlwraith.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_McIlwraith/Thomas_McIlwraith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas McIlwraith, est un homme d'affaires et un ornithologue canadien d'origine britannique, né le 25 décembre 1824 à Newton dans le Ayrshire (Écosse) et mort le 31 janvier 1903 à Hamilton au Canada.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Édimbourg et part s'installer en 1853 à Hamilton où il devient commerçant.
 Il s'intéresse assez tôt à l'ornithologie et début une collection d'oiseaux. Il fait paraître en 1860 une List of Birds observed in the vicinity of Hamilton où les espèces, classées suivant le système d'Audubon, sont au nombre de 202. Il s'agit de l'une des premières études de l'avifaune de la province de l'Ontario.
